--- a/data/trans_orig/P1429-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7613</v>
+        <v>7810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23171</v>
+        <v>23825</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02427659437909304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01303317263591971</v>
+        <v>0.01337089099465626</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03966655168402938</v>
+        <v>0.04078686739802103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>76429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61736</v>
+        <v>60376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94612</v>
+        <v>92988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08286478735802459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06693413666810404</v>
+        <v>0.06545960395180757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1025794121463455</v>
+        <v>0.100817795305609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -786,19 +786,19 @@
         <v>90610</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73507</v>
+        <v>75748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112659</v>
+        <v>112852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06014698591466139</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.048794086040586</v>
+        <v>0.05028181395332268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07478301320893961</v>
+        <v>0.07491151154534811</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>569960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>560970</v>
+        <v>560316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576528</v>
+        <v>576331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.975723405620907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9603334483159707</v>
+        <v>0.9592131326019792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9869668273640803</v>
+        <v>0.9866291090053437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>811</v>
@@ -836,19 +836,19 @@
         <v>845904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>827721</v>
+        <v>829345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>860597</v>
+        <v>861957</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9171352126419754</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8974205878536545</v>
+        <v>0.8991822046943909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9330658633318958</v>
+        <v>0.9345403960481925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1371</v>
@@ -857,19 +857,19 @@
         <v>1415864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1393815</v>
+        <v>1393622</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1432967</v>
+        <v>1430726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9398530140853386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9252169867910603</v>
+        <v>0.925088488454652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.951205913959414</v>
+        <v>0.9497181860466773</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9503</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4759</v>
+        <v>4477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17349</v>
+        <v>16564</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008815905960765208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004415488356431907</v>
+        <v>0.004153661443258035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01609550098729508</v>
+        <v>0.01536735869785276</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>21918</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13914</v>
+        <v>14077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32571</v>
+        <v>32230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0207254586334194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01315736284678489</v>
+        <v>0.013310959053439</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03079892732867017</v>
+        <v>0.03047652003449047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1003,19 +1003,19 @@
         <v>31421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22013</v>
+        <v>21652</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43125</v>
+        <v>44458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0147139183260021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01030855546261861</v>
+        <v>0.0101392367090779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02019505702523506</v>
+        <v>0.02081914673991378</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1068391</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1060545</v>
+        <v>1061330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1073135</v>
+        <v>1073417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9911840940392348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9839044990127053</v>
+        <v>0.984632641302148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955845116435682</v>
+        <v>0.9958463385567422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1007</v>
@@ -1053,19 +1053,19 @@
         <v>1035620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1024967</v>
+        <v>1025308</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1043624</v>
+        <v>1043461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9792745413665807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9692010726713298</v>
+        <v>0.9695234799655095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9868426371532153</v>
+        <v>0.9866890409465607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2052</v>
@@ -1074,19 +1074,19 @@
         <v>2104011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2092307</v>
+        <v>2090974</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2113419</v>
+        <v>2113780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852860816739979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9798049429747643</v>
+        <v>0.9791808532600862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9896914445373813</v>
+        <v>0.9898607632909222</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4772</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1732</v>
+        <v>1812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11195</v>
+        <v>10610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004254903219222163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001544557492339448</v>
+        <v>0.001615561048989181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009981381256875753</v>
+        <v>0.009459646259549133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>29149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18821</v>
+        <v>19610</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40543</v>
+        <v>41870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02932642607790121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01893539443570431</v>
+        <v>0.01972954136301075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04079031837028513</v>
+        <v>0.042125291017396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1220,19 +1220,19 @@
         <v>33921</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24016</v>
+        <v>23868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47618</v>
+        <v>47944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01603423691414323</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01135200477187149</v>
+        <v>0.01128204822941529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02250880801927818</v>
+        <v>0.02266298961600013</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1116822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1110399</v>
+        <v>1110984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1119862</v>
+        <v>1119782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9957450967807778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9900186187431242</v>
+        <v>0.9905403537404509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984554425076606</v>
+        <v>0.9983844389510108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>953</v>
@@ -1270,19 +1270,19 @@
         <v>964791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>953397</v>
+        <v>952070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>975119</v>
+        <v>974330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9706735739220987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9592096816297148</v>
+        <v>0.9578747089826041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9810646055642955</v>
+        <v>0.9802704586369893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2051</v>
@@ -1291,19 +1291,19 @@
         <v>2081613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2067916</v>
+        <v>2067590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2091518</v>
+        <v>2091666</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9839657630858568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9774911919807218</v>
+        <v>0.9773370103840007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9886479952281283</v>
+        <v>0.9887179517705854</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1064</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11210</v>
+        <v>10734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009969313373234256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002380121208202254</v>
+        <v>0.003354628605378731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02506728798927548</v>
+        <v>0.02400328736008205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6862</v>
+        <v>6714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21744</v>
+        <v>19872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03604183198236048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0201139117402419</v>
+        <v>0.01968007099464324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06373501106448615</v>
+        <v>0.05824963938263879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1437,19 +1437,19 @@
         <v>16754</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10247</v>
+        <v>10132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27299</v>
+        <v>26289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.021252073817007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01299775729758305</v>
+        <v>0.01285164297987487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03462821808023368</v>
+        <v>0.03334690391108801</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>442742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435990</v>
+        <v>436466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>446136</v>
+        <v>445700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9900306866267657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9749327120107243</v>
+        <v>0.9759967126399181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9976198787917977</v>
+        <v>0.9966453713946213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -1487,19 +1487,19 @@
         <v>328862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319414</v>
+        <v>321286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334296</v>
+        <v>334444</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9639581680176396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9362649889355139</v>
+        <v>0.9417503606173613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9798860882597581</v>
+        <v>0.9803199290053568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -1508,19 +1508,19 @@
         <v>771604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761059</v>
+        <v>762069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778111</v>
+        <v>778226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.978747926182993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9653717819197664</v>
+        <v>0.9666530960889119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9870022427024169</v>
+        <v>0.9871483570201252</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>32914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23355</v>
+        <v>22925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46415</v>
+        <v>46359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01018751552606295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007228664396621012</v>
+        <v>0.00709557997924694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0143661703050764</v>
+        <v>0.01434896886610036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1633,19 +1633,19 @@
         <v>139792</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115979</v>
+        <v>117477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160779</v>
+        <v>163771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.042169796036441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03498639076755491</v>
+        <v>0.03543828919179838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04850091171969891</v>
+        <v>0.04940343327735506</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -1654,19 +1654,19 @@
         <v>172706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149109</v>
+        <v>148480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199585</v>
+        <v>201587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02638420549858229</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02277934462331709</v>
+        <v>0.02268318814253145</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03049057224047063</v>
+        <v>0.03079632992392723</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3197915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3184414</v>
+        <v>3184470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3207474</v>
+        <v>3207904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9898124844739371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9856338296949235</v>
+        <v>0.9856510311338996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9927713356033789</v>
+        <v>0.9929044200207531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3098</v>
@@ -1704,19 +1704,19 @@
         <v>3175177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3154190</v>
+        <v>3151198</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3198990</v>
+        <v>3197492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.957830203963559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9514990882803013</v>
+        <v>0.9505965667226449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9650136092324452</v>
+        <v>0.9645617108082015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6233</v>
@@ -1725,19 +1725,19 @@
         <v>6373092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6346213</v>
+        <v>6344211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6396689</v>
+        <v>6397318</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9736157945014177</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9695094277595294</v>
+        <v>0.9692036700760728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9772206553766829</v>
+        <v>0.9773168118574685</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6906</v>
+        <v>7795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001905981812797723</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006615391284599423</v>
+        <v>0.007466831511043163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2090,19 +2090,19 @@
         <v>44921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33074</v>
+        <v>33714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59540</v>
+        <v>61181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04015611043732348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02956571955483669</v>
+        <v>0.030138460518882</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05322454236125101</v>
+        <v>0.05469191760824543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2111,19 +2111,19 @@
         <v>46910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35907</v>
+        <v>35675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61412</v>
+        <v>62243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0216918237578892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01660371488515</v>
+        <v>0.01649622375842092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02839730308183885</v>
+        <v>0.02878152704187645</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>1041945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1037029</v>
+        <v>1036140</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1043935</v>
@@ -2149,7 +2149,7 @@
         <v>0.9980940181872022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9933846087154005</v>
+        <v>0.9925331684889575</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>1073732</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1059113</v>
+        <v>1057472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1085579</v>
+        <v>1084939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9598438895626765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9467754576387489</v>
+        <v>0.9453080823917543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9704342804451632</v>
+        <v>0.9698615394811175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1964</v>
@@ -2182,19 +2182,19 @@
         <v>2115678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2101176</v>
+        <v>2100345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2126681</v>
+        <v>2126913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9783081762421107</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9716026969181611</v>
+        <v>0.9712184729581232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.98339628511485</v>
+        <v>0.983503776241579</v>
       </c>
     </row>
     <row r="6">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5394</v>
+        <v>7045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001096844557035473</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005526340211995366</v>
+        <v>0.007218095661780238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -2307,19 +2307,19 @@
         <v>41177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29731</v>
+        <v>29804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55253</v>
+        <v>53864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03773450405188822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02724529509912139</v>
+        <v>0.02731297885851235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05063407147631734</v>
+        <v>0.04936170213751438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -2328,19 +2328,19 @@
         <v>42247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31118</v>
+        <v>31326</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57472</v>
+        <v>56728</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02043603768015692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01505258364084936</v>
+        <v>0.0151529837455097</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02780058132951554</v>
+        <v>0.02744096559689017</v>
       </c>
     </row>
     <row r="8">
@@ -2357,7 +2357,7 @@
         <v>974999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970676</v>
+        <v>969025</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>976070</v>
@@ -2366,7 +2366,7 @@
         <v>0.9989031554429645</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9944736597880047</v>
+        <v>0.9927819043382206</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2378,19 +2378,19 @@
         <v>1050041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1035965</v>
+        <v>1037354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1061487</v>
+        <v>1061414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9622654959481117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9493659285236826</v>
+        <v>0.9506382978624855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9727547049008786</v>
+        <v>0.9726870211414876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1901</v>
@@ -2399,19 +2399,19 @@
         <v>2025041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2009816</v>
+        <v>2010560</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2036170</v>
+        <v>2035962</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9795639623198431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9721994186704844</v>
+        <v>0.9725590344031098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9849474163591507</v>
+        <v>0.9848470162544903</v>
       </c>
     </row>
     <row r="9">
@@ -2516,19 +2516,19 @@
         <v>42124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30189</v>
+        <v>29577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56667</v>
+        <v>57264</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04809751481580592</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03447032876891118</v>
+        <v>0.03377170731942664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06470309464621825</v>
+        <v>0.06538490769368258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -2537,19 +2537,19 @@
         <v>42124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30075</v>
+        <v>29909</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59266</v>
+        <v>57575</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02392148338529982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01707944852968526</v>
+        <v>0.01698473027148315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03365659392487109</v>
+        <v>0.03269606827452771</v>
       </c>
     </row>
     <row r="11">
@@ -2579,19 +2579,19 @@
         <v>833672</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>819129</v>
+        <v>818532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>845607</v>
+        <v>846219</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9519024851841941</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9352969053537817</v>
+        <v>0.9346150923063173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9655296712310888</v>
+        <v>0.9662282926805733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1614</v>
@@ -2600,19 +2600,19 @@
         <v>1718787</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1701645</v>
+        <v>1703336</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1730836</v>
+        <v>1731002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9760785166147001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9663434060751289</v>
+        <v>0.9673039317254724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9829205514703148</v>
+        <v>0.9830152697285168</v>
       </c>
     </row>
     <row r="12">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13056</v>
+        <v>13476</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006569702830050272</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02595434739034774</v>
+        <v>0.0267901206166517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -2725,19 +2725,19 @@
         <v>14144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7931</v>
+        <v>7948</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23461</v>
+        <v>24028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.031241127897152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01751886318890267</v>
+        <v>0.01755559073157938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05182124601618379</v>
+        <v>0.05307358397561514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -2746,19 +2746,19 @@
         <v>17449</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10133</v>
+        <v>10169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28568</v>
+        <v>28755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01825637368317465</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01060237802582956</v>
+        <v>0.01063923188948531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02989066168424288</v>
+        <v>0.03008589858445342</v>
       </c>
     </row>
     <row r="14">
@@ -2775,7 +2775,7 @@
         <v>499718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489967</v>
+        <v>489547</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -2784,7 +2784,7 @@
         <v>0.9934302971699497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9740456526096523</v>
+        <v>0.9732098793833485</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2796,19 +2796,19 @@
         <v>438592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429275</v>
+        <v>428708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>444805</v>
+        <v>444788</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9687588721028481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9481787539838162</v>
+        <v>0.9469264160243845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9824811368110974</v>
+        <v>0.9824444092684206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -2817,19 +2817,19 @@
         <v>938309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>927190</v>
+        <v>927003</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>945625</v>
+        <v>945589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9817436263168253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9701093383157571</v>
+        <v>0.9699141014155477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893976219741707</v>
+        <v>0.9893607681105149</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>6365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2053</v>
+        <v>2066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16130</v>
+        <v>15623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001867594067589565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006022434136222723</v>
+        <v>0.0006061121350676245</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004732782920652448</v>
+        <v>0.004583961374096094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -2942,19 +2942,19 @@
         <v>142365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120195</v>
+        <v>121659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165405</v>
+        <v>167567</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04023422977467071</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03396859784881599</v>
+        <v>0.03438252808083726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04674559056355922</v>
+        <v>0.0473567209786231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -2963,19 +2963,19 @@
         <v>148730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126003</v>
+        <v>125505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174330</v>
+        <v>173441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02141063370698404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01813888083479738</v>
+        <v>0.01806721865508387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02509587966522667</v>
+        <v>0.02496797334363815</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>3401777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3392012</v>
+        <v>3392519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3406089</v>
+        <v>3406076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9981324059324105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9952672170793476</v>
+        <v>0.995416038625904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9993977565863778</v>
+        <v>0.9993938878649324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3150</v>
@@ -3013,19 +3013,19 @@
         <v>3396038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3372998</v>
+        <v>3370836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3418208</v>
+        <v>3416744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9597657702253293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9532544094364408</v>
+        <v>0.9526432790213769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.966031402151184</v>
+        <v>0.9656174719191627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6337</v>
@@ -3034,19 +3034,19 @@
         <v>6797815</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6772215</v>
+        <v>6773104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6820542</v>
+        <v>6821040</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978589366293016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9749041203347734</v>
+        <v>0.9750320266563618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9818611191652026</v>
+        <v>0.9819327813449161</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7123</v>
+        <v>7202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001805764012305253</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006314538000182511</v>
+        <v>0.006384946338230169</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -3399,19 +3399,19 @@
         <v>42207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29966</v>
+        <v>30733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55661</v>
+        <v>57377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03350926277322882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02379099702344857</v>
+        <v>0.02439938897767519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04419055420280851</v>
+        <v>0.04555324062090874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -3420,19 +3420,19 @@
         <v>44244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32869</v>
+        <v>31398</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61714</v>
+        <v>60265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01853100516129502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01376671205738491</v>
+        <v>0.01315067230648125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0258482181622642</v>
+        <v>0.02524117129002595</v>
       </c>
     </row>
     <row r="5">
@@ -3449,7 +3449,7 @@
         <v>1125960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1120874</v>
+        <v>1120795</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1127997</v>
@@ -3458,7 +3458,7 @@
         <v>0.9981942359876947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.993685461999818</v>
+        <v>0.9936150536617703</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3470,19 +3470,19 @@
         <v>1217354</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1203900</v>
+        <v>1202184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1229595</v>
+        <v>1228828</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9664907372267711</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9558094457971913</v>
+        <v>0.9544467593790912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.976209002976551</v>
+        <v>0.9756006110223248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2215</v>
@@ -3491,19 +3491,19 @@
         <v>2343314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2325844</v>
+        <v>2327293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2354689</v>
+        <v>2356160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.981468994838705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9741517818377359</v>
+        <v>0.974758828709974</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9862332879426152</v>
+        <v>0.9868493276935186</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>5171</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12094</v>
+        <v>13078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005689582437974284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001988906612450875</v>
+        <v>0.00199618880544282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01330762783915052</v>
+        <v>0.01439004681135905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3616,19 +3616,19 @@
         <v>24617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16030</v>
+        <v>16004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38180</v>
+        <v>36621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02445894778555141</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01592646676857458</v>
+        <v>0.0159007755407353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03793415029116056</v>
+        <v>0.03638520964506253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -3637,19 +3637,19 @@
         <v>29788</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20178</v>
+        <v>19907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42639</v>
+        <v>41924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01555273798072852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01053510328230561</v>
+        <v>0.01039362465134704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02226221447069536</v>
+        <v>0.02188873945061177</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>903654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896731</v>
+        <v>895747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907017</v>
+        <v>907011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9943104175620258</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.986692372160849</v>
+        <v>0.9856099531886409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980110933875491</v>
+        <v>0.9980038111945572</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -3687,19 +3687,19 @@
         <v>981858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968295</v>
+        <v>969854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>990445</v>
+        <v>990471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9755410522144486</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620658497088393</v>
+        <v>0.9636147903549375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9840735332314252</v>
+        <v>0.9840992244592647</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1805</v>
@@ -3708,19 +3708,19 @@
         <v>1885512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872661</v>
+        <v>1873376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1895122</v>
+        <v>1895393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9844472620192715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9777377855293043</v>
+        <v>0.9781112605493881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894648967176943</v>
+        <v>0.9896063753486529</v>
       </c>
     </row>
     <row r="9">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6678</v>
+        <v>7267</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002453712394162433</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008106594935262867</v>
+        <v>0.008821236427257613</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3833,19 +3833,19 @@
         <v>34171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23660</v>
+        <v>23188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48275</v>
+        <v>48084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04431714799386013</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03068487917528428</v>
+        <v>0.03007266669389817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06260914763881527</v>
+        <v>0.06236115563041188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -3854,19 +3854,19 @@
         <v>36192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25376</v>
+        <v>24620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51660</v>
+        <v>49169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02269374372821562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01591132189825292</v>
+        <v>0.01543776464749988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03239263383786047</v>
+        <v>0.03083054487846808</v>
       </c>
     </row>
     <row r="11">
@@ -3883,7 +3883,7 @@
         <v>821738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>817081</v>
+        <v>816492</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>823759</v>
@@ -3892,7 +3892,7 @@
         <v>0.9975462876058375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9918934050647368</v>
+        <v>0.9911787635727423</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3904,19 +3904,19 @@
         <v>736888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722784</v>
+        <v>722975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>747399</v>
+        <v>747871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9556828520061399</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9373908523611845</v>
+        <v>0.9376388443695881</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9693151208247155</v>
+        <v>0.9699273333061018</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1484</v>
@@ -3925,19 +3925,19 @@
         <v>1558626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1543158</v>
+        <v>1545649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1569442</v>
+        <v>1570198</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9773062562717844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9676073661621395</v>
+        <v>0.969169455121532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.984088678101747</v>
+        <v>0.9845622353525001</v>
       </c>
     </row>
     <row r="12">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5713</v>
+        <v>5591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003436789358279889</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01127432259102757</v>
+        <v>0.01103329442124559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4050,19 +4050,19 @@
         <v>20037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12070</v>
+        <v>12787</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31585</v>
+        <v>31871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04091654551594907</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02464747983893623</v>
+        <v>0.02611177036772313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06449828692433944</v>
+        <v>0.06508274198092957</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4071,19 +4071,19 @@
         <v>21778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13153</v>
+        <v>13288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33222</v>
+        <v>33894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02185687499493595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01320044939936194</v>
+        <v>0.01333639655823216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03334242083386329</v>
+        <v>0.03401659778218437</v>
       </c>
     </row>
     <row r="14">
@@ -4100,7 +4100,7 @@
         <v>504960</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500988</v>
+        <v>501110</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -4109,7 +4109,7 @@
         <v>0.9965632106417202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9887256774089724</v>
+        <v>0.9889667055787541</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4121,19 +4121,19 @@
         <v>469661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>458113</v>
+        <v>457827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477628</v>
+        <v>476911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.959083454484051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9355017130756605</v>
+        <v>0.9349172580190704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9753525201610638</v>
+        <v>0.9738882296322768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>907</v>
@@ -4142,19 +4142,19 @@
         <v>974620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>963176</v>
+        <v>962504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>983245</v>
+        <v>983110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9781431250050641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9666575791661367</v>
+        <v>0.9659834022178156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9867995506006381</v>
+        <v>0.9866636034417678</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>10970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5615</v>
+        <v>5638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18921</v>
+        <v>18735</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003257945817345224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001667555489529185</v>
+        <v>0.001674223824414846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005619044227893991</v>
+        <v>0.005563931013250313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -4267,19 +4267,19 @@
         <v>121032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99104</v>
+        <v>99260</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145621</v>
+        <v>145472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03431790811320475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02810041925280493</v>
+        <v>0.02814466453616955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0412898471362767</v>
+        <v>0.04124777309346979</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -4288,19 +4288,19 @@
         <v>132003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108929</v>
+        <v>109276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157161</v>
+        <v>157511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01914724842059936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01580031352724879</v>
+        <v>0.01585075146362471</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02279647812727918</v>
+        <v>0.02284736073274168</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>3356312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3348361</v>
+        <v>3348547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3361667</v>
+        <v>3361644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9967420541826548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9943809557721061</v>
+        <v>0.9944360689867497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9983324445104708</v>
+        <v>0.9983257761755852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3217</v>
@@ -4338,19 +4338,19 @@
         <v>3405760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3381171</v>
+        <v>3381320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3427688</v>
+        <v>3427532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9656820918867952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9587101528637233</v>
+        <v>0.9587522269065303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9718995807471951</v>
+        <v>0.9718553354638305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6411</v>
@@ -4359,19 +4359,19 @@
         <v>6762072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6736914</v>
+        <v>6736564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6785146</v>
+        <v>6784799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9808527515794007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9772035218727206</v>
+        <v>0.9771526392672583</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.984199686472751</v>
+        <v>0.9841492485363752</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>8452</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4259</v>
+        <v>4075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15900</v>
+        <v>15065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01702345777882979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008578402547726384</v>
+        <v>0.008208707953582457</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03202674877144451</v>
+        <v>0.03034335109973425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -4724,19 +4724,19 @@
         <v>48752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39012</v>
+        <v>39424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59252</v>
+        <v>60052</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07868641501939511</v>
+        <v>0.07868641501939509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06296591292908212</v>
+        <v>0.06363028641173638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09563247923153266</v>
+        <v>0.09692462275742385</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -4745,19 +4745,19 @@
         <v>57204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46215</v>
+        <v>46247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69480</v>
+        <v>69916</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05125575785936828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04140909766044574</v>
+        <v>0.04143787608668295</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06225565640695001</v>
+        <v>0.06264615072340635</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>488021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480573</v>
+        <v>481408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492214</v>
+        <v>492398</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9829765422211703</v>
+        <v>0.9829765422211701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9679732512285558</v>
+        <v>0.9696566489002657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.991421597452274</v>
+        <v>0.9917912920464177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>772</v>
@@ -4795,19 +4795,19 @@
         <v>570825</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560325</v>
+        <v>559525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>580565</v>
+        <v>580153</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9213135849806049</v>
+        <v>0.9213135849806048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9043675207684676</v>
+        <v>0.9030753772425757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.937034087070918</v>
+        <v>0.9363697135882637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1215</v>
@@ -4816,19 +4816,19 @@
         <v>1058845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1046569</v>
+        <v>1046133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1069834</v>
+        <v>1069802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9487442421406317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.93774434359305</v>
+        <v>0.9373538492765935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9585909023395545</v>
+        <v>0.9585621239133171</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>12390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6372</v>
+        <v>6298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25175</v>
+        <v>26697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01292731301799933</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006648278933642355</v>
+        <v>0.006571533313965721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02626652340923044</v>
+        <v>0.0278545115869021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -4941,19 +4941,19 @@
         <v>48507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39975</v>
+        <v>39223</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58580</v>
+        <v>58295</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04363637356200097</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03596098174884235</v>
+        <v>0.03528478175475255</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05269776158757099</v>
+        <v>0.05244177334741543</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -4962,19 +4962,19 @@
         <v>60897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50063</v>
+        <v>48080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77366</v>
+        <v>75457</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02941809509643445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02418431814336052</v>
+        <v>0.02322640001968644</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03737425902411675</v>
+        <v>0.03645213403829902</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>946039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>933254</v>
+        <v>931732</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952057</v>
+        <v>952131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9870726869820007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9737334765907693</v>
+        <v>0.9721454884130978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9933517210663576</v>
+        <v>0.9934284666860342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1506</v>
@@ -5012,19 +5012,19 @@
         <v>1063107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1053034</v>
+        <v>1053319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1071639</v>
+        <v>1072391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9563636264379991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.947302238412429</v>
+        <v>0.9475582266525847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9640390182511577</v>
+        <v>0.9647152182452478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2401</v>
@@ -5033,19 +5033,19 @@
         <v>2009146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1992677</v>
+        <v>1994586</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2019980</v>
+        <v>2021963</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9705819049035653</v>
+        <v>0.9705819049035656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9626257409758832</v>
+        <v>0.9635478659617004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9758156818566395</v>
+        <v>0.9767735999803134</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>6517</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3222</v>
+        <v>3065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12375</v>
+        <v>12300</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006230256542417628</v>
+        <v>0.006230256542417629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003080826028764119</v>
+        <v>0.002929920570837275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01183136736185007</v>
+        <v>0.01175911664009499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -5158,19 +5158,19 @@
         <v>44434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35700</v>
+        <v>34360</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57080</v>
+        <v>56340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04252197903545184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03416364191269051</v>
+        <v>0.03288159182291107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05462465616243183</v>
+        <v>0.05391618859920606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -5179,19 +5179,19 @@
         <v>50950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40232</v>
+        <v>39315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65829</v>
+        <v>63717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02436723661559852</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01924112133793041</v>
+        <v>0.01880268127761884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03148274977756409</v>
+        <v>0.03047301952933384</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>1039465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1033607</v>
+        <v>1033682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1042760</v>
+        <v>1042917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9937697434575823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9881686326381502</v>
+        <v>0.9882408833599043</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969191739712356</v>
+        <v>0.9970700794291623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1435</v>
@@ -5229,19 +5229,19 @@
         <v>1000524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>987878</v>
+        <v>988618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1009258</v>
+        <v>1010598</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9574780209645481</v>
+        <v>0.957478020964548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9453753438375693</v>
+        <v>0.9460838114007939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9658363580873094</v>
+        <v>0.9671184081770891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2454</v>
@@ -5250,19 +5250,19 @@
         <v>2039990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2025111</v>
+        <v>2027223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2050708</v>
+        <v>2051625</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9756327633844014</v>
+        <v>0.9756327633844015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9685172502224357</v>
+        <v>0.9695269804706661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9807588786620697</v>
+        <v>0.981197318722381</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>2149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6486</v>
+        <v>6128</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.002206431328236653</v>
+        <v>0.002206431328236652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0006230800908483139</v>
+        <v>0.0006185165528288015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006659464708789343</v>
+        <v>0.006292257843659891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -5375,19 +5375,19 @@
         <v>31797</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24526</v>
+        <v>24585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41509</v>
+        <v>41192</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03511492789094475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02708434375264467</v>
+        <v>0.02714984054427313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04583969515741982</v>
+        <v>0.04548994518052645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -5396,19 +5396,19 @@
         <v>33946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26279</v>
+        <v>25775</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43643</v>
+        <v>43919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01806184989444149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01398219451689564</v>
+        <v>0.01371429197233652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02322115738330296</v>
+        <v>0.02336778320825027</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>971777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>967440</v>
+        <v>967798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>973319</v>
+        <v>973324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9977935686717634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9933405352912105</v>
+        <v>0.9937077421563401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9993769199091517</v>
+        <v>0.9993814834471713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1258</v>
@@ -5446,19 +5446,19 @@
         <v>873729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>864017</v>
+        <v>864334</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>881000</v>
+        <v>880941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9648850721090553</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9541603048425802</v>
+        <v>0.9545100548194736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9729156562473554</v>
+        <v>0.9728501594557269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2200</v>
@@ -5467,19 +5467,19 @@
         <v>1845506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1835809</v>
+        <v>1835533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853173</v>
+        <v>1853677</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9819381501055585</v>
+        <v>0.9819381501055586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9767788426166969</v>
+        <v>0.9766322167917497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9860178054831042</v>
+        <v>0.9862857080276634</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>29507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20015</v>
+        <v>20152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44882</v>
+        <v>42794</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.008491753941835654</v>
+        <v>0.008491753941835652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005759901270595432</v>
+        <v>0.005799483281447341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01291645039356542</v>
+        <v>0.01231545940498395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -5592,19 +5592,19 @@
         <v>173490</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154314</v>
+        <v>153664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194136</v>
+        <v>195049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0471226413667472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04191408289235768</v>
+        <v>0.04173760878786457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05273045639867505</v>
+        <v>0.05297845608760518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>348</v>
@@ -5613,19 +5613,19 @@
         <v>202997</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177107</v>
+        <v>181459</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226114</v>
+        <v>228841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02836553211955989</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02474777596277951</v>
+        <v>0.02535585709193999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03159574061053751</v>
+        <v>0.03197668100095122</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>3445302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3429927</v>
+        <v>3432015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3454794</v>
+        <v>3454657</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9915082460581646</v>
+        <v>0.9915082460581642</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9870835496064346</v>
+        <v>0.9876845405950161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9942400987294046</v>
+        <v>0.9942005167185526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4971</v>
@@ -5663,19 +5663,19 @@
         <v>3508185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3487539</v>
+        <v>3486626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3527361</v>
+        <v>3528011</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9528773586332527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9472695436013249</v>
+        <v>0.9470215439123947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.958085917107642</v>
+        <v>0.9582623912121352</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8270</v>
@@ -5684,19 +5684,19 @@
         <v>6953487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6930370</v>
+        <v>6927643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6979377</v>
+        <v>6975025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9716344678804401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9684042593894623</v>
+        <v>0.9680233189990488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9752522240372204</v>
+        <v>0.9746441429080601</v>
       </c>
     </row>
     <row r="18">
